--- a/src/test/resources/testData/DataExcel.xlsx
+++ b/src/test/resources/testData/DataExcel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester_SeleniumJava\SeleniumTestNGParallel2024\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86DD571-67FD-4A12-91FF-77F79CD39650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22DDE3-066E-4D37-A439-D7694DD9BFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A3FDF98-31AC-4765-B453-7E28565D0ECF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3FDF98-31AC-4765-B453-7E28565D0ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDataProvider" sheetId="1" r:id="rId1"/>
+    <sheet name="Customers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>EMAIL</t>
   </si>
@@ -37,6 +38,39 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
   </si>
 </sst>
 </file>
@@ -419,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA353249-2664-4E6F-AE56-6B5D82A53E82}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -507,4 +541,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D49E3F-CFD9-493B-9CED-581376448A4A}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/DataExcel.xlsx
+++ b/src/test/resources/testData/DataExcel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester_SeleniumJava\SeleniumTestNGParallel2024\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumJava\SeleniumTestNGParallel2024\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22DDE3-066E-4D37-A439-D7694DD9BFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3FDF98-31AC-4765-B453-7E28565D0ECF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDataProvider" sheetId="1" r:id="rId1"/>
     <sheet name="Customers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>EMAIL</t>
   </si>
@@ -71,12 +70,21 @@
   </si>
   <si>
     <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>CustomerName 0809</t>
+  </si>
+  <si>
+    <t>anhtester.com</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,12 +138,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,21 +459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA353249-2664-4E6F-AE56-6B5D82A53E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -488,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,13 +539,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B7F4D831-7ABC-4688-A765-FF3D19B40CF6}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{ABA234C3-E979-41E5-9311-0D5D1E406F92}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{53903AB3-962F-4D5D-A2E0-C23627979F23}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{9CB1AFBA-5113-42F6-B834-7F08560C1E09}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{D27398A6-C3EC-440B-83B7-2E4AE7AFB3F4}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{57FA26B2-614C-4FEE-9E4C-C83CE8CB70F6}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{65E2AE8A-07B0-449A-88A4-161CCE9DB0A6}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
@@ -544,16 +553,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D49E3F-CFD9-493B-9CED-581376448A4A}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -586,6 +602,23 @@
       </c>
       <c r="K1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>123456789</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
